--- a/data/20250227_Ontologies.xlsx
+++ b/data/20250227_Ontologies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fbosche\Documents\GitHub\BE-OLS_DataReview01\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E819B55-D8C5-480B-8222-1CE853197DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17EFE34-4CAE-433E-A685-528DFE489A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C460B36E-D875-4E13-ACEB-9CF2004FB6B5}"/>
+    <workbookView xWindow="3885" yWindow="0" windowWidth="20115" windowHeight="11295" activeTab="2" xr2:uid="{C460B36E-D875-4E13-ACEB-9CF2004FB6B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot (2)" sheetId="16" r:id="rId1"/>
@@ -1536,7 +1536,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6210" uniqueCount="1060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6268" uniqueCount="1073">
   <si>
     <t>Count of Name</t>
   </si>
@@ -4772,6 +4772,45 @@
   </si>
   <si>
     <t>https://w3id.org/isoprops#</t>
+  </si>
+  <si>
+    <t>Cost Item (CI) Ontology</t>
+  </si>
+  <si>
+    <t>ci</t>
+  </si>
+  <si>
+    <t>http://w3id.org/ci#</t>
+  </si>
+  <si>
+    <t>https://cpm-ont-network.github.io/cost/index.html</t>
+  </si>
+  <si>
+    <t>The Cost Item (CI) Ontology is based on concepts and principles of construction project cost estimation an can be used together with the Construction Resources (CR) ontology and can use terminology from the Construction Terminology (CTERM).</t>
+  </si>
+  <si>
+    <t>Construction Resources (CR) Ontology</t>
+  </si>
+  <si>
+    <t>Construction Terminology (CTERM) Ontology</t>
+  </si>
+  <si>
+    <t>cr</t>
+  </si>
+  <si>
+    <t>cterm</t>
+  </si>
+  <si>
+    <t>http://w3id.org/cterm#</t>
+  </si>
+  <si>
+    <t>https://cpm-ont-network.github.io/terminology/index.html</t>
+  </si>
+  <si>
+    <t>http://w3id.org/cr#</t>
+  </si>
+  <si>
+    <t>https://cpm-ont-network.github.io/resource/index.html</t>
   </si>
 </sst>
 </file>
@@ -5118,7 +5157,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -5492,6 +5531,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -13742,8 +13782,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EFE1469B-541D-4DB3-969C-63DB4F642030}" name="Table2" displayName="Table2" ref="A1:AF115" totalsRowShown="0">
-  <autoFilter ref="A1:AF115" xr:uid="{EFE1469B-541D-4DB3-969C-63DB4F642030}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EFE1469B-541D-4DB3-969C-63DB4F642030}" name="Table2" displayName="Table2" ref="A1:AF118" totalsRowShown="0">
+  <autoFilter ref="A1:AF118" xr:uid="{EFE1469B-541D-4DB3-969C-63DB4F642030}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF115">
     <sortCondition ref="B1:B115"/>
   </sortState>
@@ -14627,31 +14667,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="B1" s="195" t="s">
+      <c r="B1" s="196" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="196" t="s">
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="197" t="s">
         <v>958</v>
       </c>
-      <c r="F1" s="196"/>
-      <c r="G1" s="196"/>
-      <c r="H1" s="196" t="s">
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197" t="s">
         <v>962</v>
       </c>
-      <c r="I1" s="196"/>
-      <c r="J1" s="196"/>
-      <c r="K1" s="196" t="s">
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
+      <c r="K1" s="197" t="s">
         <v>1000</v>
       </c>
-      <c r="L1" s="196"/>
-      <c r="M1" s="196"/>
-      <c r="N1" s="196" t="s">
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197" t="s">
         <v>976</v>
       </c>
-      <c r="O1" s="196"/>
-      <c r="P1" s="196"/>
+      <c r="O1" s="197"/>
+      <c r="P1" s="197"/>
     </row>
     <row r="2" spans="1:19" s="12" customFormat="1" ht="90">
       <c r="B2" s="12" t="s">
@@ -24674,10 +24714,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6484B993-682B-477D-B31E-A58D58B7BF22}">
-  <dimension ref="A1:AG115"/>
+  <dimension ref="A1:AG118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24868,15 +24908,15 @@
         <v>68</v>
       </c>
       <c r="AB2" s="193">
-        <f>COUNTIF(R2:T2, "yes")</f>
+        <f t="shared" ref="AB2:AB33" si="0">COUNTIF(R2:T2, "yes")</f>
         <v>1</v>
       </c>
       <c r="AC2" s="193">
-        <f>COUNTIF(U2:W2, "yes")</f>
+        <f t="shared" ref="AC2:AC33" si="1">COUNTIF(U2:W2, "yes")</f>
         <v>2</v>
       </c>
       <c r="AD2" s="193">
-        <f>COUNTIF(X2:Z2, "yes")</f>
+        <f t="shared" ref="AD2:AD33" si="2">COUNTIF(X2:Z2, "yes")</f>
         <v>2</v>
       </c>
       <c r="AE2" s="193" t="s">
@@ -24954,15 +24994,15 @@
         <v>69</v>
       </c>
       <c r="AB3">
-        <f>COUNTIF(R3:T3, "yes")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC3">
-        <f>COUNTIF(U3:W3, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD3">
-        <f>COUNTIF(X3:Z3, "yes")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AE3" t="s">
@@ -25040,15 +25080,15 @@
         <v>69</v>
       </c>
       <c r="AB4">
-        <f>COUNTIF(R4:T4, "yes")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AC4">
-        <f>COUNTIF(U4:W4, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD4">
-        <f>COUNTIF(X4:Z4, "yes")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AE4" t="s">
@@ -25129,15 +25169,15 @@
         <v>89</v>
       </c>
       <c r="AB5">
-        <f>COUNTIF(R5:T5, "yes")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC5">
-        <f>COUNTIF(U5:W5, "yes")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AD5">
-        <f>COUNTIF(X5:Z5, "yes")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AE5" t="s">
@@ -25215,15 +25255,15 @@
         <v>69</v>
       </c>
       <c r="AB6">
-        <f>COUNTIF(R6:T6, "yes")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC6">
-        <f>COUNTIF(U6:W6, "yes")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AD6">
-        <f>COUNTIF(X6:Z6, "yes")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AE6" t="s">
@@ -25307,15 +25347,15 @@
         <v>102</v>
       </c>
       <c r="AB7">
-        <f>COUNTIF(R7:T7, "yes")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC7">
-        <f>COUNTIF(U7:W7, "yes")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AD7">
-        <f>COUNTIF(X7:Z7, "yes")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AE7" t="s">
@@ -25399,15 +25439,15 @@
         <v>112</v>
       </c>
       <c r="AB8">
-        <f>COUNTIF(R8:T8, "yes")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC8">
-        <f>COUNTIF(U8:W8, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD8">
-        <f>COUNTIF(X8:Z8, "yes")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AE8" t="s">
@@ -25488,15 +25528,15 @@
         <v>119</v>
       </c>
       <c r="AB9">
-        <f>COUNTIF(R9:T9, "yes")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC9">
-        <f>COUNTIF(U9:W9, "yes")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AD9">
-        <f>COUNTIF(X9:Z9, "yes")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AE9" t="s">
@@ -25577,15 +25617,15 @@
         <v>89</v>
       </c>
       <c r="AB10">
-        <f>COUNTIF(R10:T10, "yes")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AC10">
-        <f>COUNTIF(U10:W10, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD10">
-        <f>COUNTIF(X10:Z10, "yes")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AE10" t="s">
@@ -25654,15 +25694,15 @@
         <v>68</v>
       </c>
       <c r="AB11" s="193">
-        <f>COUNTIF(R11:T11, "yes")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AC11" s="193">
-        <f>COUNTIF(U11:W11, "yes")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AD11" s="193">
-        <f>COUNTIF(X11:Z11, "yes")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AE11" s="193" t="s">
@@ -25731,15 +25771,15 @@
         <v>89</v>
       </c>
       <c r="AB12">
-        <f>COUNTIF(R12:T12, "yes")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AC12">
-        <f>COUNTIF(U12:W12, "yes")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AD12">
-        <f>COUNTIF(X12:Z12, "yes")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AE12" t="s">
@@ -25811,15 +25851,15 @@
         <v>102</v>
       </c>
       <c r="AB13">
-        <f>COUNTIF(R13:T13, "yes")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC13">
-        <f>COUNTIF(U13:W13, "yes")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AD13">
-        <f>COUNTIF(X13:Z13, "yes")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AE13" t="s">
@@ -25900,15 +25940,15 @@
         <v>69</v>
       </c>
       <c r="AB14">
-        <f>COUNTIF(R14:T14, "yes")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC14">
-        <f>COUNTIF(U14:W14, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD14">
-        <f>COUNTIF(X14:Z14, "yes")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AE14" t="s">
@@ -25992,15 +26032,15 @@
         <v>119</v>
       </c>
       <c r="AB15">
-        <f>COUNTIF(R15:T15, "yes")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AC15">
-        <f>COUNTIF(U15:W15, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD15">
-        <f>COUNTIF(X15:Z15, "yes")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AE15" t="s">
@@ -26081,15 +26121,15 @@
         <v>89</v>
       </c>
       <c r="AB16">
-        <f>COUNTIF(R16:T16, "yes")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC16">
-        <f>COUNTIF(U16:W16, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD16">
-        <f>COUNTIF(X16:Z16, "yes")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AE16" t="s">
@@ -26167,15 +26207,15 @@
         <v>112</v>
       </c>
       <c r="AB17">
-        <f>COUNTIF(R17:T17, "yes")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AC17">
-        <f>COUNTIF(U17:W17, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD17">
-        <f>COUNTIF(X17:Z17, "yes")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AE17" t="s">
@@ -26259,15 +26299,15 @@
         <v>102</v>
       </c>
       <c r="AB18">
-        <f>COUNTIF(R18:T18, "yes")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AC18">
-        <f>COUNTIF(U18:W18, "yes")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AD18">
-        <f>COUNTIF(X18:Z18, "yes")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AE18" t="s">
@@ -26345,15 +26385,15 @@
         <v>112</v>
       </c>
       <c r="AB19">
-        <f>COUNTIF(R19:T19, "yes")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC19">
-        <f>COUNTIF(U19:W19, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD19">
-        <f>COUNTIF(X19:Z19, "yes")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AE19" t="s">
@@ -26431,15 +26471,15 @@
         <v>69</v>
       </c>
       <c r="AB20">
-        <f>COUNTIF(R20:T20, "yes")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AC20">
-        <f>COUNTIF(U20:W20, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD20">
-        <f>COUNTIF(X20:Z20, "yes")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AE20" t="s">
@@ -26523,15 +26563,15 @@
         <v>102</v>
       </c>
       <c r="AB21">
-        <f>COUNTIF(R21:T21, "yes")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC21">
-        <f>COUNTIF(U21:W21, "yes")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AD21">
-        <f>COUNTIF(X21:Z21, "yes")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AE21" t="s">
@@ -26612,15 +26652,15 @@
         <v>119</v>
       </c>
       <c r="AB22">
-        <f>COUNTIF(R22:T22, "yes")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC22">
-        <f>COUNTIF(U22:W22, "yes")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AD22">
-        <f>COUNTIF(X22:Z22, "yes")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AE22" t="s">
@@ -26707,15 +26747,15 @@
         <v>102</v>
       </c>
       <c r="AB23">
-        <f>COUNTIF(R23:T23, "yes")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC23">
-        <f>COUNTIF(U23:W23, "yes")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AD23">
-        <f>COUNTIF(X23:Z23, "yes")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AE23" t="s">
@@ -26790,15 +26830,15 @@
         <v>69</v>
       </c>
       <c r="AB24">
-        <f>COUNTIF(R24:T24, "yes")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AC24">
-        <f>COUNTIF(U24:W24, "yes")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AD24">
-        <f>COUNTIF(X24:Z24, "yes")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -26864,15 +26904,15 @@
         <v>119</v>
       </c>
       <c r="AB25">
-        <f>COUNTIF(R25:T25, "yes")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AC25">
-        <f>COUNTIF(U25:W25, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD25">
-        <f>COUNTIF(X25:Z25, "yes")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AE25" t="s">
@@ -26947,15 +26987,15 @@
         <v>89</v>
       </c>
       <c r="AB26">
-        <f>COUNTIF(R26:T26, "yes")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC26">
-        <f>COUNTIF(U26:W26, "yes")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AD26">
-        <f>COUNTIF(X26:Z26, "yes")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AE26" t="s">
@@ -27016,15 +27056,15 @@
         <v>69</v>
       </c>
       <c r="AB27">
-        <f>COUNTIF(R27:T27, "yes")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC27">
-        <f>COUNTIF(U27:W27, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD27">
-        <f>COUNTIF(X27:Z27, "yes")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -27096,15 +27136,15 @@
         <v>89</v>
       </c>
       <c r="AB28">
-        <f>COUNTIF(R28:T28, "yes")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AC28">
-        <f>COUNTIF(U28:W28, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD28">
-        <f>COUNTIF(X28:Z28, "yes")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AE28" t="s">
@@ -27179,15 +27219,15 @@
         <v>102</v>
       </c>
       <c r="AB29">
-        <f>COUNTIF(R29:T29, "yes")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC29">
-        <f>COUNTIF(U29:W29, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD29">
-        <f>COUNTIF(X29:Z29, "yes")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AE29" t="s">
@@ -27268,15 +27308,15 @@
         <v>112</v>
       </c>
       <c r="AB30">
-        <f>COUNTIF(R30:T30, "yes")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AC30">
-        <f>COUNTIF(U30:W30, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD30">
-        <f>COUNTIF(X30:Z30, "yes")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AE30" t="s">
@@ -27354,15 +27394,15 @@
         <v>119</v>
       </c>
       <c r="AB31">
-        <f>COUNTIF(R31:T31, "yes")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AC31">
-        <f>COUNTIF(U31:W31, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD31">
-        <f>COUNTIF(X31:Z31, "yes")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AE31" t="s">
@@ -27440,15 +27480,15 @@
         <v>89</v>
       </c>
       <c r="AB32">
-        <f>COUNTIF(R32:T32, "yes")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AC32">
-        <f>COUNTIF(U32:W32, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD32">
-        <f>COUNTIF(X32:Z32, "yes")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AE32" t="s">
@@ -27529,15 +27569,15 @@
         <v>89</v>
       </c>
       <c r="AB33">
-        <f>COUNTIF(R33:T33, "yes")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AC33">
-        <f>COUNTIF(U33:W33, "yes")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD33">
-        <f>COUNTIF(X33:Z33, "yes")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AE33" t="s">
@@ -27615,15 +27655,15 @@
         <v>89</v>
       </c>
       <c r="AB34">
-        <f>COUNTIF(R34:T34, "yes")</f>
+        <f t="shared" ref="AB34:AB65" si="3">COUNTIF(R34:T34, "yes")</f>
         <v>2</v>
       </c>
       <c r="AC34">
-        <f>COUNTIF(U34:W34, "yes")</f>
+        <f t="shared" ref="AC34:AC65" si="4">COUNTIF(U34:W34, "yes")</f>
         <v>3</v>
       </c>
       <c r="AD34">
-        <f>COUNTIF(X34:Z34, "yes")</f>
+        <f t="shared" ref="AD34:AD65" si="5">COUNTIF(X34:Z34, "yes")</f>
         <v>3</v>
       </c>
       <c r="AE34" t="s">
@@ -27704,15 +27744,15 @@
         <v>102</v>
       </c>
       <c r="AB35">
-        <f>COUNTIF(R35:T35, "yes")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC35">
-        <f>COUNTIF(U35:W35, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD35">
-        <f>COUNTIF(X35:Z35, "yes")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE35" t="s">
@@ -27790,15 +27830,15 @@
         <v>112</v>
       </c>
       <c r="AB36">
-        <f>COUNTIF(R36:T36, "yes")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC36">
-        <f>COUNTIF(U36:W36, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD36">
-        <f>COUNTIF(X36:Z36, "yes")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AE36" t="s">
@@ -27859,15 +27899,15 @@
         <v>69</v>
       </c>
       <c r="AB37">
-        <f>COUNTIF(R37:T37, "yes")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC37">
-        <f>COUNTIF(U37:W37, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD37">
-        <f>COUNTIF(X37:Z37, "yes")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -27919,15 +27959,15 @@
         <v>69</v>
       </c>
       <c r="AB38">
-        <f>COUNTIF(R38:T38, "yes")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC38">
-        <f>COUNTIF(U38:W38, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD38">
-        <f>COUNTIF(X38:Z38, "yes")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -27999,15 +28039,15 @@
         <v>119</v>
       </c>
       <c r="AB39">
-        <f>COUNTIF(R39:T39, "yes")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC39">
-        <f>COUNTIF(U39:W39, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD39">
-        <f>COUNTIF(X39:Z39, "yes")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AE39" t="s">
@@ -28085,15 +28125,15 @@
         <v>102</v>
       </c>
       <c r="AB40">
-        <f>COUNTIF(R40:T40, "yes")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC40">
-        <f>COUNTIF(U40:W40, "yes")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD40">
-        <f>COUNTIF(X40:Z40, "yes")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE40" t="s">
@@ -28165,15 +28205,15 @@
         <v>102</v>
       </c>
       <c r="AB41">
-        <f>COUNTIF(R41:T41, "yes")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC41">
-        <f>COUNTIF(U41:W41, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD41">
-        <f>COUNTIF(X41:Z41, "yes")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE41" t="s">
@@ -28254,15 +28294,15 @@
         <v>112</v>
       </c>
       <c r="AB42">
-        <f>COUNTIF(R42:T42, "yes")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AC42">
-        <f>COUNTIF(U42:W42, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD42">
-        <f>COUNTIF(X42:Z42, "yes")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AE42" t="s">
@@ -28340,15 +28380,15 @@
         <v>119</v>
       </c>
       <c r="AB43">
-        <f>COUNTIF(R43:T43, "yes")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC43">
-        <f>COUNTIF(U43:W43, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD43">
-        <f>COUNTIF(X43:Z43, "yes")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE43" t="s">
@@ -28429,15 +28469,15 @@
         <v>89</v>
       </c>
       <c r="AB44">
-        <f>COUNTIF(R44:T44, "yes")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC44">
-        <f>COUNTIF(U44:W44, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD44">
-        <f>COUNTIF(X44:Z44, "yes")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AE44" t="s">
@@ -28513,15 +28553,15 @@
         <v>102</v>
       </c>
       <c r="AB45">
-        <f>COUNTIF(R45:T45, "yes")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC45">
-        <f>COUNTIF(U45:W45, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD45">
-        <f>COUNTIF(X45:Z45, "yes")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE45" t="s">
@@ -28600,15 +28640,15 @@
         <v>102</v>
       </c>
       <c r="AB46">
-        <f>COUNTIF(R46:T46, "yes")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AC46">
-        <f>COUNTIF(U46:W46, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD46">
-        <f>COUNTIF(X46:Z46, "yes")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE46" t="s">
@@ -28686,15 +28726,15 @@
         <v>112</v>
       </c>
       <c r="AB47">
-        <f>COUNTIF(R47:T47, "yes")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC47">
-        <f>COUNTIF(U47:W47, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD47">
-        <f>COUNTIF(X47:Z47, "yes")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE47" t="s">
@@ -28769,15 +28809,15 @@
         <v>119</v>
       </c>
       <c r="AB48">
-        <f>COUNTIF(R48:T48, "yes")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC48">
-        <f>COUNTIF(U48:W48, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD48">
-        <f>COUNTIF(X48:Z48, "yes")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE48" t="s">
@@ -28858,15 +28898,15 @@
         <v>89</v>
       </c>
       <c r="AB49">
-        <f>COUNTIF(R49:T49, "yes")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AC49">
-        <f>COUNTIF(U49:W49, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD49">
-        <f>COUNTIF(X49:Z49, "yes")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE49" t="s">
@@ -28944,15 +28984,15 @@
         <v>102</v>
       </c>
       <c r="AB50">
-        <f>COUNTIF(R50:T50, "yes")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC50">
-        <f>COUNTIF(U50:W50, "yes")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AD50">
-        <f>COUNTIF(X50:Z50, "yes")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE50" t="s">
@@ -29030,15 +29070,15 @@
         <v>69</v>
       </c>
       <c r="AB51">
-        <f>COUNTIF(R51:T51, "yes")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AC51">
-        <f>COUNTIF(U51:W51, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD51">
-        <f>COUNTIF(X51:Z51, "yes")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AE51" t="s">
@@ -29116,15 +29156,15 @@
         <v>102</v>
       </c>
       <c r="AB52">
-        <f>COUNTIF(R52:T52, "yes")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC52">
-        <f>COUNTIF(U52:W52, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD52">
-        <f>COUNTIF(X52:Z52, "yes")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE52" t="s">
@@ -29202,15 +29242,15 @@
         <v>89</v>
       </c>
       <c r="AB53">
-        <f>COUNTIF(R53:T53, "yes")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC53">
-        <f>COUNTIF(U53:W53, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD53">
-        <f>COUNTIF(X53:Z53, "yes")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE53" t="s">
@@ -29291,15 +29331,15 @@
         <v>112</v>
       </c>
       <c r="AB54">
-        <f>COUNTIF(R54:T54, "yes")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AC54">
-        <f>COUNTIF(U54:W54, "yes")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD54">
-        <f>COUNTIF(X54:Z54, "yes")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AE54" t="s">
@@ -29377,15 +29417,15 @@
         <v>112</v>
       </c>
       <c r="AB55">
-        <f>COUNTIF(R55:T55, "yes")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC55">
-        <f>COUNTIF(U55:W55, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD55">
-        <f>COUNTIF(X55:Z55, "yes")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AE55" t="s">
@@ -29469,15 +29509,15 @@
         <v>89</v>
       </c>
       <c r="AB56">
-        <f>COUNTIF(R56:T56, "yes")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AC56">
-        <f>COUNTIF(U56:W56, "yes")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AD56">
-        <f>COUNTIF(X56:Z56, "yes")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE56" t="s">
@@ -29555,15 +29595,15 @@
         <v>102</v>
       </c>
       <c r="AB57">
-        <f>COUNTIF(R57:T57, "yes")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AC57">
-        <f>COUNTIF(U57:W57, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD57">
-        <f>COUNTIF(X57:Z57, "yes")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE57" t="s">
@@ -29650,15 +29690,15 @@
         <v>112</v>
       </c>
       <c r="AB58">
-        <f>COUNTIF(R58:T58, "yes")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC58">
-        <f>COUNTIF(U58:W58, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD58">
-        <f>COUNTIF(X58:Z58, "yes")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE58" t="s">
@@ -29733,15 +29773,15 @@
         <v>119</v>
       </c>
       <c r="AB59">
-        <f>COUNTIF(R59:T59, "yes")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AC59">
-        <f>COUNTIF(U59:W59, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD59">
-        <f>COUNTIF(X59:Z59, "yes")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE59" t="s">
@@ -29819,15 +29859,15 @@
         <v>69</v>
       </c>
       <c r="AB60">
-        <f>COUNTIF(R60:T60, "yes")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC60">
-        <f>COUNTIF(U60:W60, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD60">
-        <f>COUNTIF(X60:Z60, "yes")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AE60" t="s">
@@ -29902,15 +29942,15 @@
         <v>119</v>
       </c>
       <c r="AB61">
-        <f>COUNTIF(R61:T61, "yes")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC61">
-        <f>COUNTIF(U61:W61, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD61">
-        <f>COUNTIF(X61:Z61, "yes")</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AE61" t="s">
@@ -29988,15 +30028,15 @@
         <v>69</v>
       </c>
       <c r="AB62">
-        <f>COUNTIF(R62:T62, "yes")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC62">
-        <f>COUNTIF(U62:W62, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD62">
-        <f>COUNTIF(X62:Z62, "yes")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AE62" t="s">
@@ -30062,15 +30102,15 @@
         <v>112</v>
       </c>
       <c r="AB63">
-        <f>COUNTIF(R63:T63, "yes")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC63">
-        <f>COUNTIF(U63:W63, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD63">
-        <f>COUNTIF(X63:Z63, "yes")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AE63" t="s">
@@ -30093,15 +30133,15 @@
       <c r="O64" s="190"/>
       <c r="Q64" s="44"/>
       <c r="AB64">
-        <f>COUNTIF(R64:T64, "yes")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC64">
-        <f>COUNTIF(U64:W64, "yes")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD64">
-        <f>COUNTIF(X64:Z64, "yes")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -30173,15 +30213,15 @@
         <v>69</v>
       </c>
       <c r="AB65">
-        <f>COUNTIF(R65:T65, "yes")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AC65">
-        <f>COUNTIF(U65:W65, "yes")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AD65">
-        <f>COUNTIF(X65:Z65, "yes")</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AE65" t="s">
@@ -30262,15 +30302,15 @@
         <v>89</v>
       </c>
       <c r="AB66">
-        <f>COUNTIF(R66:T66, "yes")</f>
+        <f t="shared" ref="AB66:AB97" si="6">COUNTIF(R66:T66, "yes")</f>
         <v>1</v>
       </c>
       <c r="AC66">
-        <f>COUNTIF(U66:W66, "yes")</f>
+        <f t="shared" ref="AC66:AC97" si="7">COUNTIF(U66:W66, "yes")</f>
         <v>1</v>
       </c>
       <c r="AD66">
-        <f>COUNTIF(X66:Z66, "yes")</f>
+        <f t="shared" ref="AD66:AD97" si="8">COUNTIF(X66:Z66, "yes")</f>
         <v>0</v>
       </c>
       <c r="AE66" t="s">
@@ -30348,15 +30388,15 @@
         <v>112</v>
       </c>
       <c r="AB67">
-        <f>COUNTIF(R67:T67, "yes")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AC67">
-        <f>COUNTIF(U67:W67, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD67">
-        <f>COUNTIF(X67:Z67, "yes")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AE67" t="s">
@@ -30434,15 +30474,15 @@
         <v>69</v>
       </c>
       <c r="AB68">
-        <f>COUNTIF(R68:T68, "yes")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC68">
-        <f>COUNTIF(U68:W68, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD68">
-        <f>COUNTIF(X68:Z68, "yes")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AE68" t="s">
@@ -30520,15 +30560,15 @@
         <v>112</v>
       </c>
       <c r="AB69">
-        <f>COUNTIF(R69:T69, "yes")</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AC69">
-        <f>COUNTIF(U69:W69, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD69">
-        <f>COUNTIF(X69:Z69, "yes")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AE69" t="s">
@@ -30607,15 +30647,15 @@
         <v>119</v>
       </c>
       <c r="AB70">
-        <f>COUNTIF(R70:T70, "yes")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC70">
-        <f>COUNTIF(U70:W70, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD70">
-        <f>COUNTIF(X70:Z70, "yes")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AE70" t="s">
@@ -30693,15 +30733,15 @@
         <v>89</v>
       </c>
       <c r="AB71">
-        <f>COUNTIF(R71:T71, "yes")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC71">
-        <f>COUNTIF(U71:W71, "yes")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AD71">
-        <f>COUNTIF(X71:Z71, "yes")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AE71" t="s">
@@ -30773,15 +30813,15 @@
         <v>102</v>
       </c>
       <c r="AB72">
-        <f>COUNTIF(R72:T72, "yes")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC72">
-        <f>COUNTIF(U72:W72, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD72">
-        <f>COUNTIF(X72:Z72, "yes")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AE72" t="s">
@@ -30853,15 +30893,15 @@
         <v>68</v>
       </c>
       <c r="AB73" s="193">
-        <f>COUNTIF(R73:T73, "yes")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC73" s="193">
-        <f>COUNTIF(U73:W73, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD73" s="193">
-        <f>COUNTIF(X73:Z73, "yes")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AE73" s="193" t="s">
@@ -30939,15 +30979,15 @@
         <v>102</v>
       </c>
       <c r="AB74">
-        <f>COUNTIF(R74:T74, "yes")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC74">
-        <f>COUNTIF(U74:W74, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD74">
-        <f>COUNTIF(X74:Z74, "yes")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AE74" t="s">
@@ -31025,15 +31065,15 @@
         <v>112</v>
       </c>
       <c r="AB75">
-        <f>COUNTIF(R75:T75, "yes")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AC75">
-        <f>COUNTIF(U75:W75, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD75">
-        <f>COUNTIF(X75:Z75, "yes")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AE75" t="s">
@@ -31114,15 +31154,15 @@
         <v>119</v>
       </c>
       <c r="AB76">
-        <f>COUNTIF(R76:T76, "yes")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC76">
-        <f>COUNTIF(U76:W76, "yes")</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AD76">
-        <f>COUNTIF(X76:Z76, "yes")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AE76" t="s">
@@ -31200,15 +31240,15 @@
         <v>112</v>
       </c>
       <c r="AB77">
-        <f>COUNTIF(R77:T77, "yes")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC77">
-        <f>COUNTIF(U77:W77, "yes")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AD77">
-        <f>COUNTIF(X77:Z77, "yes")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AE77" t="s">
@@ -31283,15 +31323,15 @@
         <v>89</v>
       </c>
       <c r="AB78">
-        <f>COUNTIF(R78:T78, "yes")</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AC78">
-        <f>COUNTIF(U78:W78, "yes")</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AD78">
-        <f>COUNTIF(X78:Z78, "yes")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AE78" t="s">
@@ -31369,15 +31409,15 @@
         <v>69</v>
       </c>
       <c r="AB79">
-        <f>COUNTIF(R79:T79, "yes")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AC79">
-        <f>COUNTIF(U79:W79, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD79">
-        <f>COUNTIF(X79:Z79, "yes")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AE79" t="s">
@@ -31455,15 +31495,15 @@
         <v>102</v>
       </c>
       <c r="AB80">
-        <f>COUNTIF(R80:T80, "yes")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC80">
-        <f>COUNTIF(U80:W80, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD80">
-        <f>COUNTIF(X80:Z80, "yes")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AE80" t="s">
@@ -31541,15 +31581,15 @@
         <v>69</v>
       </c>
       <c r="AB81">
-        <f>COUNTIF(R81:T81, "yes")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC81">
-        <f>COUNTIF(U81:W81, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD81">
-        <f>COUNTIF(X81:Z81, "yes")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AE81" t="s">
@@ -31627,15 +31667,15 @@
         <v>69</v>
       </c>
       <c r="AB82">
-        <f>COUNTIF(R82:T82, "yes")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC82">
-        <f>COUNTIF(U82:W82, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD82">
-        <f>COUNTIF(X82:Z82, "yes")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AE82" t="s">
@@ -31713,15 +31753,15 @@
         <v>89</v>
       </c>
       <c r="AB83">
-        <f>COUNTIF(R83:T83, "yes")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AC83">
-        <f>COUNTIF(U83:W83, "yes")</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AD83">
-        <f>COUNTIF(X83:Z83, "yes")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AE83" t="s">
@@ -31799,15 +31839,15 @@
         <v>119</v>
       </c>
       <c r="AB84">
-        <f>COUNTIF(R84:T84, "yes")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC84">
-        <f>COUNTIF(U84:W84, "yes")</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AD84">
-        <f>COUNTIF(X84:Z84, "yes")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE84" t="s">
@@ -31885,15 +31925,15 @@
         <v>69</v>
       </c>
       <c r="AB85">
-        <f>COUNTIF(R85:T85, "yes")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC85">
-        <f>COUNTIF(U85:W85, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD85">
-        <f>COUNTIF(X85:Z85, "yes")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AE85" t="s">
@@ -31971,15 +32011,15 @@
         <v>69</v>
       </c>
       <c r="AB86">
-        <f>COUNTIF(R86:T86, "yes")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC86">
-        <f>COUNTIF(U86:W86, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD86">
-        <f>COUNTIF(X86:Z86, "yes")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AE86" t="s">
@@ -32063,15 +32103,15 @@
         <v>69</v>
       </c>
       <c r="AB87">
-        <f>COUNTIF(R87:T87, "yes")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AC87">
-        <f>COUNTIF(U87:W87, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD87">
-        <f>COUNTIF(X87:Z87, "yes")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AE87" t="s">
@@ -32152,15 +32192,15 @@
         <v>69</v>
       </c>
       <c r="AB88">
-        <f>COUNTIF(R88:T88, "yes")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC88">
-        <f>COUNTIF(U88:W88, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD88">
-        <f>COUNTIF(X88:Z88, "yes")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AE88" t="s">
@@ -32241,15 +32281,15 @@
         <v>69</v>
       </c>
       <c r="AB89">
-        <f>COUNTIF(R89:T89, "yes")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC89">
-        <f>COUNTIF(U89:W89, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD89">
-        <f>COUNTIF(X89:Z89, "yes")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AE89" t="s">
@@ -32330,15 +32370,15 @@
         <v>69</v>
       </c>
       <c r="AB90">
-        <f>COUNTIF(R90:T90, "yes")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC90">
-        <f>COUNTIF(U90:W90, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD90">
-        <f>COUNTIF(X90:Z90, "yes")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AE90" t="s">
@@ -32419,15 +32459,15 @@
         <v>69</v>
       </c>
       <c r="AB91">
-        <f>COUNTIF(R91:T91, "yes")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC91">
-        <f>COUNTIF(U91:W91, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD91">
-        <f>COUNTIF(X91:Z91, "yes")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AE91" t="s">
@@ -32508,15 +32548,15 @@
         <v>69</v>
       </c>
       <c r="AB92">
-        <f>COUNTIF(R92:T92, "yes")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AC92">
-        <f>COUNTIF(U92:W92, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD92">
-        <f>COUNTIF(X92:Z92, "yes")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AE92" t="s">
@@ -32594,15 +32634,15 @@
         <v>69</v>
       </c>
       <c r="AB93">
-        <f>COUNTIF(R93:T93, "yes")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC93">
-        <f>COUNTIF(U93:W93, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD93">
-        <f>COUNTIF(X93:Z93, "yes")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AE93" t="s">
@@ -32683,15 +32723,15 @@
         <v>69</v>
       </c>
       <c r="AB94">
-        <f>COUNTIF(R94:T94, "yes")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC94">
-        <f>COUNTIF(U94:W94, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD94">
-        <f>COUNTIF(X94:Z94, "yes")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AE94" t="s">
@@ -32769,15 +32809,15 @@
         <v>69</v>
       </c>
       <c r="AB95">
-        <f>COUNTIF(R95:T95, "yes")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC95">
-        <f>COUNTIF(U95:W95, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD95">
-        <f>COUNTIF(X95:Z95, "yes")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AE95" t="s">
@@ -32852,15 +32892,15 @@
         <v>102</v>
       </c>
       <c r="AB96">
-        <f>COUNTIF(R96:T96, "yes")</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AC96">
-        <f>COUNTIF(U96:W96, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD96">
-        <f>COUNTIF(X96:Z96, "yes")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AE96" t="s">
@@ -32938,15 +32978,15 @@
         <v>69</v>
       </c>
       <c r="AB97">
-        <f>COUNTIF(R97:T97, "yes")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AC97">
-        <f>COUNTIF(U97:W97, "yes")</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AD97">
-        <f>COUNTIF(X97:Z97, "yes")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AE97" t="s">
@@ -33027,15 +33067,15 @@
         <v>119</v>
       </c>
       <c r="AB98">
-        <f>COUNTIF(R98:T98, "yes")</f>
+        <f t="shared" ref="AB98:AB115" si="9">COUNTIF(R98:T98, "yes")</f>
         <v>2</v>
       </c>
       <c r="AC98">
-        <f>COUNTIF(U98:W98, "yes")</f>
+        <f t="shared" ref="AC98:AC115" si="10">COUNTIF(U98:W98, "yes")</f>
         <v>3</v>
       </c>
       <c r="AD98">
-        <f>COUNTIF(X98:Z98, "yes")</f>
+        <f t="shared" ref="AD98:AD115" si="11">COUNTIF(X98:Z98, "yes")</f>
         <v>2</v>
       </c>
       <c r="AE98" t="s">
@@ -33108,15 +33148,15 @@
         <v>89</v>
       </c>
       <c r="AB99">
-        <f>COUNTIF(R99:T99, "yes")</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AC99">
-        <f>COUNTIF(U99:W99, "yes")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AD99">
-        <f>COUNTIF(X99:Z99, "yes")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE99" t="s">
@@ -33194,15 +33234,15 @@
         <v>102</v>
       </c>
       <c r="AB100">
-        <f>COUNTIF(R100:T100, "yes")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC100">
-        <f>COUNTIF(U100:W100, "yes")</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AD100">
-        <f>COUNTIF(X100:Z100, "yes")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE100" t="s">
@@ -33280,15 +33320,15 @@
         <v>69</v>
       </c>
       <c r="AB101">
-        <f>COUNTIF(R101:T101, "yes")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AC101">
-        <f>COUNTIF(U101:W101, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD101">
-        <f>COUNTIF(X101:Z101, "yes")</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AE101" t="s">
@@ -33366,15 +33406,15 @@
         <v>112</v>
       </c>
       <c r="AB102">
-        <f>COUNTIF(R102:T102, "yes")</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AC102">
-        <f>COUNTIF(U102:W102, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD102">
-        <f>COUNTIF(X102:Z102, "yes")</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AE102" t="s">
@@ -33452,15 +33492,15 @@
         <v>119</v>
       </c>
       <c r="AB103">
-        <f>COUNTIF(R103:T103, "yes")</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AC103">
-        <f>COUNTIF(U103:W103, "yes")</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AD103">
-        <f>COUNTIF(X103:Z103, "yes")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AE103" t="s">
@@ -33535,15 +33575,15 @@
         <v>102</v>
       </c>
       <c r="AB104">
-        <f>COUNTIF(R104:T104, "yes")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AC104">
-        <f>COUNTIF(U104:W104, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD104">
-        <f>COUNTIF(X104:Z104, "yes")</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AE104" t="s">
@@ -33621,15 +33661,15 @@
         <v>102</v>
       </c>
       <c r="AB105">
-        <f>COUNTIF(R105:T105, "yes")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AC105">
-        <f>COUNTIF(U105:W105, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD105">
-        <f>COUNTIF(X105:Z105, "yes")</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AE105" t="s">
@@ -33707,15 +33747,15 @@
         <v>102</v>
       </c>
       <c r="AB106">
-        <f>COUNTIF(R106:T106, "yes")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AC106">
-        <f>COUNTIF(U106:W106, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD106">
-        <f>COUNTIF(X106:Z106, "yes")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AE106" t="s">
@@ -33787,15 +33827,15 @@
         <v>119</v>
       </c>
       <c r="AB107">
-        <f>COUNTIF(R107:T107, "yes")</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AC107">
-        <f>COUNTIF(U107:W107, "yes")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AD107">
-        <f>COUNTIF(X107:Z107, "yes")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AE107" t="s">
@@ -33867,15 +33907,15 @@
         <v>89</v>
       </c>
       <c r="AB108">
-        <f>COUNTIF(R108:T108, "yes")</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AC108">
-        <f>COUNTIF(U108:W108, "yes")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AD108">
-        <f>COUNTIF(X108:Z108, "yes")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE108" t="s">
@@ -33947,15 +33987,15 @@
         <v>119</v>
       </c>
       <c r="AB109">
-        <f>COUNTIF(R109:T109, "yes")</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AC109">
-        <f>COUNTIF(U109:W109, "yes")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AD109">
-        <f>COUNTIF(X109:Z109, "yes")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AE109" t="s">
@@ -34027,15 +34067,15 @@
         <v>112</v>
       </c>
       <c r="AB110">
-        <f>COUNTIF(R110:T110, "yes")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AC110">
-        <f>COUNTIF(U110:W110, "yes")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AD110">
-        <f>COUNTIF(X110:Z110, "yes")</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AE110" t="s">
@@ -34107,15 +34147,15 @@
         <v>112</v>
       </c>
       <c r="AB111">
-        <f>COUNTIF(R111:T111, "yes")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AC111">
-        <f>COUNTIF(U111:W111, "yes")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AD111">
-        <f>COUNTIF(X111:Z111, "yes")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE111" t="s">
@@ -34190,15 +34230,15 @@
         <v>119</v>
       </c>
       <c r="AB112">
-        <f>COUNTIF(R112:T112, "yes")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC112">
-        <f>COUNTIF(U112:W112, "yes")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AD112">
-        <f>COUNTIF(X112:Z112, "yes")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AE112" t="s">
@@ -34271,15 +34311,15 @@
         <v>112</v>
       </c>
       <c r="AB113">
-        <f>COUNTIF(R113:T113, "yes")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC113">
-        <f>COUNTIF(U113:W113, "yes")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AD113">
-        <f>COUNTIF(X113:Z113, "yes")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AE113" t="s">
@@ -34357,15 +34397,15 @@
         <v>69</v>
       </c>
       <c r="AB114">
-        <f>COUNTIF(R114:T114, "yes")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AC114">
-        <f>COUNTIF(U114:W114, "yes")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AD114">
-        <f>COUNTIF(X114:Z114, "yes")</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AE114" t="s">
@@ -34441,21 +34481,255 @@
         <v>119</v>
       </c>
       <c r="AB115" s="192">
-        <f>COUNTIF(R115:T115, "yes")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC115" s="192">
-        <f>COUNTIF(U115:W115, "yes")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AD115" s="192">
-        <f>COUNTIF(X115:Z115, "yes")</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE115" s="192" t="s">
         <v>80</v>
       </c>
       <c r="AF115" s="192" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="116" spans="1:32">
+      <c r="A116" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C116">
+        <v>0.2</v>
+      </c>
+      <c r="D116">
+        <v>2025</v>
+      </c>
+      <c r="F116" t="s">
+        <v>897</v>
+      </c>
+      <c r="K116" s="195" t="s">
+        <v>61</v>
+      </c>
+      <c r="M116" t="s">
+        <v>1064</v>
+      </c>
+      <c r="N116" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="O116" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="P116" t="s">
+        <v>1068</v>
+      </c>
+      <c r="Q116" s="194" t="s">
+        <v>84</v>
+      </c>
+      <c r="R116" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="S116" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="T116" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="U116" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="V116" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="W116" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="X116" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y116" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z116" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB116" s="193">
+        <f t="shared" ref="AB116:AB118" si="12">COUNTIF(R116:T116, "yes")</f>
+        <v>1</v>
+      </c>
+      <c r="AC116" s="193">
+        <f t="shared" ref="AC116:AC118" si="13">COUNTIF(U116:W116, "yes")</f>
+        <v>3</v>
+      </c>
+      <c r="AD116" s="193">
+        <f t="shared" ref="AD116:AD118" si="14">COUNTIF(X116:Z116, "yes")</f>
+        <v>0</v>
+      </c>
+      <c r="AE116" s="193" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF116" s="193" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="117" spans="1:32">
+      <c r="A117" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C117">
+        <v>0.2</v>
+      </c>
+      <c r="D117">
+        <v>2025</v>
+      </c>
+      <c r="F117" t="s">
+        <v>897</v>
+      </c>
+      <c r="K117" s="195" t="s">
+        <v>61</v>
+      </c>
+      <c r="N117" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="O117" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="P117" t="s">
+        <v>1068</v>
+      </c>
+      <c r="Q117" s="194" t="s">
+        <v>84</v>
+      </c>
+      <c r="R117" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="S117" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="T117" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="U117" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="V117" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="W117" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="X117" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y117" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z117" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB117" s="193">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AC117" s="193">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AD117" s="193">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE117" s="193" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF117" s="193" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="118" spans="1:32">
+      <c r="A118" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C118">
+        <v>0.2</v>
+      </c>
+      <c r="D118">
+        <v>2025</v>
+      </c>
+      <c r="F118" t="s">
+        <v>897</v>
+      </c>
+      <c r="K118" s="195" t="s">
+        <v>61</v>
+      </c>
+      <c r="N118" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="O118" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="P118" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q118" s="194" t="s">
+        <v>84</v>
+      </c>
+      <c r="R118" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="S118" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="T118" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="U118" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="V118" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="W118" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="X118" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y118" s="184" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z118" s="184" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB118" s="193">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AC118" s="193">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AD118" s="193">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AE118" s="193" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF118" s="193" t="s">
         <v>81</v>
       </c>
     </row>
@@ -34653,11 +34927,17 @@
     <hyperlink ref="N73" r:id="rId190" xr:uid="{35AFB66D-BCC2-457C-96DA-CFA5BB4AAB35}"/>
     <hyperlink ref="O73" r:id="rId191" xr:uid="{BA9A2DE0-D3A9-457E-8B45-85CAA7B50F3A}"/>
     <hyperlink ref="O63" r:id="rId192" xr:uid="{CFAFE458-8E47-4EB6-A95E-69D7D7FE1696}"/>
+    <hyperlink ref="N116" r:id="rId193" xr:uid="{A2702EA2-51E0-4CB4-8936-0B6CD8BF88B3}"/>
+    <hyperlink ref="O116" r:id="rId194" xr:uid="{A81EE368-0920-43A9-A0E5-24E558752F51}"/>
+    <hyperlink ref="N118" r:id="rId195" xr:uid="{50B6BFDA-8E88-4CE6-9F1E-12577D1233C2}"/>
+    <hyperlink ref="O118" r:id="rId196" xr:uid="{DE1F4344-2E43-4B71-9851-4C5DBE377002}"/>
+    <hyperlink ref="N117" r:id="rId197" xr:uid="{1CBE69F5-2640-46EA-9DE8-5375EADBB0DF}"/>
+    <hyperlink ref="O117" r:id="rId198" xr:uid="{760EF222-892C-4B94-B4B3-FB5F94BB73D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId193"/>
+  <legacyDrawing r:id="rId199"/>
   <tableParts count="1">
-    <tablePart r:id="rId194"/>
+    <tablePart r:id="rId200"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -34666,7 +34946,7 @@
           <x14:formula1>
             <xm:f>Lists!$A$2:$A$30</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:G115</xm:sqref>
+          <xm:sqref>F2:G118</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -40443,15 +40723,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="7e06419a-bc24-4bca-aaf1-3b90bf7d837a">
@@ -40459,6 +40730,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -40666,19 +40946,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E73802-DE0F-482B-8B75-044CD712CFB1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBC734A-37E0-4A55-B328-89CFAE297459}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7e06419a-bc24-4bca-aaf1-3b90bf7d837a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBC734A-37E0-4A55-B328-89CFAE297459}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E73802-DE0F-482B-8B75-044CD712CFB1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7e06419a-bc24-4bca-aaf1-3b90bf7d837a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
